--- a/DOC/要件定義/社内管理システム _EMS.xlsx
+++ b/DOC/要件定義/社内管理システム _EMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378295E-98E6-404E-99F0-0AB9E9595FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071C8A3C-D0F7-4048-BE89-6993004FC8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="225" windowWidth="20235" windowHeight="15030" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="0" windowWidth="20235" windowHeight="15030" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="281">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -2821,6 +2821,16 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有給管理</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3284,18 +3294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3311,16 +3309,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3338,10 +3342,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -16865,102 +16875,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="49" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -16978,40 +16988,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="61" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="61" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="61" t="s">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="55"/>
       <c r="X5" s="10" t="s">
         <v>58</v>
       </c>
@@ -17037,379 +17047,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="60" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="55">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="53">
         <v>255555</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="55">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="53">
         <v>6666</v>
       </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="55">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="53">
         <v>7777</v>
       </c>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="52" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="52" t="s">
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="52" t="s">
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="52" t="s">
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="54"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="54"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="2"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="54"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="2"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="54"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="2"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="54"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="2"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="54"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="2"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="54"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="2"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -17626,88 +17636,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -17732,6 +17660,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17759,102 +17769,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="48">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="44">
         <v>44597</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="49" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -17877,40 +17887,40 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="61" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="61" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="61" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="61" t="s">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="61" t="s">
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
       <c r="X6" s="10" t="s">
         <v>76</v>
       </c>
@@ -17935,8 +17945,8 @@
       <c r="B7" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="63">
         <v>210000</v>
       </c>
@@ -17990,8 +18000,8 @@
       <c r="B8" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="63">
         <v>210000</v>
       </c>
@@ -18045,8 +18055,8 @@
       <c r="B9" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="63"/>
       <c r="F9" s="64"/>
       <c r="G9" s="65"/>
@@ -18086,8 +18096,8 @@
       <c r="B10" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="63"/>
       <c r="F10" s="64"/>
       <c r="G10" s="65"/>
@@ -18127,8 +18137,8 @@
       <c r="B11" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="63"/>
       <c r="F11" s="64"/>
       <c r="G11" s="65"/>
@@ -18168,8 +18178,8 @@
       <c r="B12" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="63"/>
       <c r="F12" s="64"/>
       <c r="G12" s="65"/>
@@ -18209,8 +18219,8 @@
       <c r="B13" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="65"/>
@@ -18250,8 +18260,8 @@
       <c r="B14" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="63"/>
       <c r="F14" s="64"/>
       <c r="G14" s="65"/>
@@ -18291,8 +18301,8 @@
       <c r="B15" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="63"/>
       <c r="F15" s="64"/>
       <c r="G15" s="65"/>
@@ -18332,8 +18342,8 @@
       <c r="B16" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="65"/>
@@ -18373,8 +18383,8 @@
       <c r="B17" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="63"/>
       <c r="F17" s="64"/>
       <c r="G17" s="65"/>
@@ -18414,8 +18424,8 @@
       <c r="B18" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="63"/>
       <c r="F18" s="64"/>
       <c r="G18" s="65"/>
@@ -18682,64 +18692,61 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
@@ -18764,61 +18771,64 @@
     <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AE16:AG16"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18841,94 +18851,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19298,102 +19308,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="49" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19411,40 +19421,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="61" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="61" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="61" t="s">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="55"/>
       <c r="X5" s="10" t="s">
         <v>199</v>
       </c>
@@ -19462,46 +19472,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="60" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="55">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="53">
         <v>180</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="55" t="s">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="55">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="53">
         <v>7777</v>
       </c>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="52" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
       <c r="AB6" s="10" t="s">
         <v>211</v>
       </c>
@@ -19513,46 +19523,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="60" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="55">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="53">
         <v>200</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="55" t="s">
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="55">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="53">
         <v>1234</v>
       </c>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="52">
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="59">
         <v>2345</v>
       </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
       <c r="AB7" s="10" t="s">
         <v>211</v>
       </c>
@@ -19564,46 +19574,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="60" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="55">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="53">
         <v>210</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="55" t="s">
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="55">
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="53">
         <v>3456</v>
       </c>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="52">
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="59">
         <v>234</v>
       </c>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="10" t="s">
         <v>211</v>
       </c>
@@ -19615,32 +19625,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -19650,32 +19660,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -19685,32 +19695,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
@@ -19720,32 +19730,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -19755,32 +19765,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -19790,32 +19800,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -20019,69 +20029,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -20098,6 +20045,69 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20120,92 +20130,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -20432,108 +20442,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -20776,108 +20786,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21126,94 +21136,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21562,100 +21572,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="49" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21670,38 +21680,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="61" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="61" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="55"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -21719,357 +21729,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="54"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="2"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="54"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="2"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="54"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="2"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="54"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="2"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="54"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="2"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="54"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="2"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="54"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="2"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -22252,64 +22262,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -22334,30 +22310,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22548,92 +22558,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22658,402 +22668,402 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46" t="s">
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46" t="s">
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
       <c r="AG13" s="2"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
       <c r="AG14" s="2"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
       <c r="AG15" s="2"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
@@ -23366,76 +23376,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -23448,6 +23388,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23552,102 +23562,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="48" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="49" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24086,55 +24096,55 @@
       <c r="AK24" s="5"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="45" t="s">
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="42" t="s">
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42" t="s">
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="43"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="48"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -24387,6 +24397,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -24397,12 +24413,6 @@
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF25:AK25"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24425,92 +24435,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24882,92 +24892,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25252,7 +25262,7 @@
   <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25261,92 +25271,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25733,10 +25743,10 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AK39" sqref="AK39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25745,92 +25755,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26099,66 +26109,6 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="5"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
@@ -26193,108 +26143,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
